--- a/接口文档/---朱广源整理---/---物业端---/物业端缴费管理.xlsx
+++ b/接口文档/---朱广源整理---/---物业端---/物业端缴费管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930" activeTab="4"/>
+    <workbookView windowWidth="21495" windowHeight="9930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -177,59 +177,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,29 +191,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,12 +214,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -300,9 +258,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,8 +278,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -349,13 +349,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +391,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,67 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,13 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,25 +493,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,13 +614,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,15 +640,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,6 +668,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -696,21 +711,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -719,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,16 +731,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,77 +750,77 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,41 +829,41 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1569,8 +1569,8 @@
   <sheetPr/>
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -2779,8 +2779,8 @@
   <sheetPr/>
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>

--- a/接口文档/---朱广源整理---/---物业端---/物业端缴费管理.xlsx
+++ b/接口文档/---朱广源整理---/---物业端---/物业端缴费管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930" activeTab="2"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>商品类目接口
 版本：1.0
@@ -89,6 +89,9 @@
     <t>POST</t>
   </si>
   <si>
+    <t>{"filePath":"D:\\用户目录\\我的文档\\Downloads\\房屋缴费信息导入模板.xlsx"}</t>
+  </si>
+  <si>
     <t xml:space="preserve">导出缴费模板
 </t>
   </si>
@@ -102,18 +105,77 @@
   <si>
     <t>http://192.168.2.124:89/api/product_edit/v1/importPayInfo</t>
   </si>
+  <si>
+    <r>
+      <t>{"filePath":"D:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\\Downloads\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>房屋缴费信息导入模板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF555555"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xlsx"}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,22 +231,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,14 +290,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -221,7 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,42 +314,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -286,8 +328,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,17 +358,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,6 +381,12 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF555555"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -337,7 +405,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,31 +465,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,19 +501,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,85 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,17 +682,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,6 +747,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -678,39 +779,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -719,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,16 +799,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,116 +818,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
@@ -1569,7 +1637,7 @@
   <sheetPr/>
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
@@ -2174,8 +2242,8 @@
   <sheetPr/>
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="$A1:$XFD1048576 D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -2234,7 +2302,9 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
@@ -2798,7 +2868,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2809,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3385,7 +3455,7 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -3403,7 +3473,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -3414,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3444,7 +3514,9 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
